--- a/test_numbers.xlsx
+++ b/test_numbers.xlsx
@@ -478,6 +478,11 @@
           <t>Greg</t>
         </is>
       </c>
+      <c r="C2" s="7" t="inlineStr">
+        <is>
+          <t>SENT</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="3" s="5">
       <c r="A3" s="4" t="n">
@@ -488,6 +493,11 @@
           <t>Gino</t>
         </is>
       </c>
+      <c r="C3" s="7" t="inlineStr">
+        <is>
+          <t>SENT</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="4" s="5">
       <c r="A4" s="4" t="n">
@@ -498,6 +508,11 @@
           <t>Joel</t>
         </is>
       </c>
+      <c r="C4" s="7" t="inlineStr">
+        <is>
+          <t>SENT</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="5" s="5">
       <c r="A5" s="4" t="n">
@@ -508,6 +523,11 @@
           <t>Philippe</t>
         </is>
       </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>SENT</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="6" s="5">
       <c r="A6" s="4" t="n">
@@ -518,6 +538,11 @@
           <t>Maria</t>
         </is>
       </c>
+      <c r="C6" s="7" t="inlineStr">
+        <is>
+          <t>SENT</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="7" s="5">
       <c r="A7" s="4" t="n">
@@ -528,6 +553,11 @@
           <t>Obrien</t>
         </is>
       </c>
+      <c r="C7" s="7" t="inlineStr">
+        <is>
+          <t>SENT</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="8" s="5">
       <c r="A8" s="4" t="n">
@@ -538,6 +568,11 @@
           <t>Deniz</t>
         </is>
       </c>
+      <c r="C8" s="7" t="inlineStr">
+        <is>
+          <t>SENT</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="9" s="5">
       <c r="A9" s="4" t="n">
@@ -548,6 +583,11 @@
           <t>Susan</t>
         </is>
       </c>
+      <c r="C9" s="7" t="inlineStr">
+        <is>
+          <t>SENT</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="10" s="5">
       <c r="A10" s="4" t="n">
@@ -556,6 +596,11 @@
       <c r="B10" s="6" t="inlineStr">
         <is>
           <t>Harry</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr">
+        <is>
+          <t>SENT</t>
         </is>
       </c>
     </row>
